--- a/analysis/Buhlen/raw_data/Buhlen.xlsx
+++ b/analysis/Buhlen/raw_data/Buhlen.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schunk\Documents\GitHub\Lithic_analysis_archaeology\analysis\Buhlen\raw_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="Buhlen" localSheetId="0">Tabelle1!$A$1:$AQ$200</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -749,9 +744,6 @@
     <t>Bu67 166 IIIc 70-80</t>
   </si>
   <si>
-    <t>Keilmesser_point</t>
-  </si>
-  <si>
     <t>BU-083</t>
   </si>
   <si>
@@ -1557,12 +1549,15 @@
   </si>
   <si>
     <t>orientation schistosity</t>
+  </si>
+  <si>
+    <t>Keilmesser_tip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1874,7 +1869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1884,187 +1879,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W196" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" customWidth="1"/>
-    <col min="21" max="21" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" customWidth="1"/>
     <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="18.21875" customWidth="1"/>
-    <col min="24" max="25" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" customWidth="1"/>
+    <col min="24" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
-    <col min="27" max="27" width="9.77734375" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" customWidth="1"/>
-    <col min="29" max="29" width="13.44140625" customWidth="1"/>
-    <col min="30" max="30" width="10.21875" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" customWidth="1"/>
-    <col min="32" max="32" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.33203125" customWidth="1"/>
-    <col min="35" max="35" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" customWidth="1"/>
-    <col min="37" max="37" width="17.6640625" customWidth="1"/>
-    <col min="38" max="38" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5546875" customWidth="1"/>
-    <col min="41" max="41" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.88671875" customWidth="1"/>
-    <col min="43" max="43" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="37" max="37" width="17.7109375" customWidth="1"/>
+    <col min="38" max="38" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5703125" customWidth="1"/>
+    <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.85546875" customWidth="1"/>
+    <col min="43" max="43" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" t="s">
         <v>449</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>450</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>451</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>452</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>453</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>454</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>455</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>456</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>457</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>458</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>459</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>460</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>461</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>462</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>463</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>464</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>465</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>466</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>467</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>468</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>469</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>470</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>471</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>472</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>473</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>474</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>475</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>477</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>478</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>479</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>480</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>481</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>482</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>483</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>484</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>485</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>486</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>487</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>488</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>489</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>490</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>491</v>
-      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +2669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +2913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +3035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3165,7 +3160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +3505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3632,7 +3627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3748,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3977,7 +3972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4331,7 +4326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4569,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4691,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4926,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5164,7 +5159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5286,7 +5281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5402,7 +5397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -5646,7 +5641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5762,7 +5757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5884,7 +5879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -6006,7 +6001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6128,7 +6123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -6250,7 +6245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -6366,7 +6361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -6488,7 +6483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -6610,7 +6605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -6732,7 +6727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -6848,7 +6843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -6964,7 +6959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -7086,7 +7081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -7205,7 +7200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -7321,7 +7316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -7437,7 +7432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -7559,7 +7554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -7672,7 +7667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -7794,7 +7789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -7916,7 +7911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -8154,7 +8149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -8270,7 +8265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -8389,7 +8384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8505,7 +8500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -8627,7 +8622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -8749,7 +8744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -8871,7 +8866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -8993,7 +8988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -9109,7 +9104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -9225,7 +9220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -9347,7 +9342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -9469,7 +9464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9591,7 +9586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9713,7 +9708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -9835,7 +9830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -9957,7 +9952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -10073,7 +10068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -10198,7 +10193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -10314,7 +10309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -10436,7 +10431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -10558,7 +10553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -10677,7 +10672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -10793,7 +10788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -10915,7 +10910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -11034,7 +11029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -11147,7 +11142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -11269,7 +11264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -11391,7 +11386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -11507,7 +11502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -11623,7 +11618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -11730,7 +11725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -11762,7 +11757,7 @@
         <v>7</v>
       </c>
       <c r="K83" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L83" t="s">
         <v>63</v>
@@ -11843,12 +11838,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -11857,7 +11852,7 @@
         <v>63</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
@@ -11875,7 +11870,7 @@
         <v>7</v>
       </c>
       <c r="K84" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L84" t="s">
         <v>63</v>
@@ -11959,12 +11954,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -11973,7 +11968,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
@@ -11991,7 +11986,7 @@
         <v>7</v>
       </c>
       <c r="K85" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L85" t="s">
         <v>63</v>
@@ -12072,12 +12067,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -12104,7 +12099,7 @@
         <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L86" t="s">
         <v>63</v>
@@ -12185,12 +12180,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -12199,7 +12194,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
@@ -12217,7 +12212,7 @@
         <v>7</v>
       </c>
       <c r="K87" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L87" t="s">
         <v>63</v>
@@ -12301,12 +12296,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -12333,7 +12328,7 @@
         <v>7</v>
       </c>
       <c r="K88" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L88" t="s">
         <v>63</v>
@@ -12423,12 +12418,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -12437,7 +12432,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
@@ -12455,7 +12450,7 @@
         <v>7</v>
       </c>
       <c r="K89" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L89" t="s">
         <v>63</v>
@@ -12545,12 +12540,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -12559,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
@@ -12577,7 +12572,7 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L90" t="s">
         <v>155</v>
@@ -12652,12 +12647,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -12666,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
@@ -12684,7 +12679,7 @@
         <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s">
         <v>63</v>
@@ -12768,12 +12763,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -12782,7 +12777,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
@@ -12800,7 +12795,7 @@
         <v>7</v>
       </c>
       <c r="K92" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L92" t="s">
         <v>63</v>
@@ -12884,12 +12879,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -12898,7 +12893,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
@@ -12916,7 +12911,7 @@
         <v>7</v>
       </c>
       <c r="K93" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L93" t="s">
         <v>63</v>
@@ -12997,12 +12992,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -13029,7 +13024,7 @@
         <v>7</v>
       </c>
       <c r="K94" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L94" t="s">
         <v>63</v>
@@ -13113,12 +13108,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -13127,7 +13122,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
@@ -13145,7 +13140,7 @@
         <v>7</v>
       </c>
       <c r="K95" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L95" t="s">
         <v>63</v>
@@ -13226,12 +13221,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -13258,7 +13253,7 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L96" t="s">
         <v>63</v>
@@ -13345,12 +13340,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -13377,7 +13372,7 @@
         <v>7</v>
       </c>
       <c r="K97" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L97" t="s">
         <v>63</v>
@@ -13461,12 +13456,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -13475,7 +13470,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -13490,7 +13485,7 @@
         <v>7</v>
       </c>
       <c r="K98" t="s">
-        <v>222</v>
+        <v>491</v>
       </c>
       <c r="L98" t="s">
         <v>63</v>
@@ -13571,12 +13566,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -13585,7 +13580,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
@@ -13603,7 +13598,7 @@
         <v>7</v>
       </c>
       <c r="K99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L99" t="s">
         <v>9</v>
@@ -13684,12 +13679,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -13698,7 +13693,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
@@ -13713,7 +13708,7 @@
         <v>6</v>
       </c>
       <c r="J100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K100" t="s">
         <v>8</v>
@@ -13800,12 +13795,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -13814,7 +13809,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
@@ -13829,7 +13824,7 @@
         <v>6</v>
       </c>
       <c r="J101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K101" t="s">
         <v>8</v>
@@ -13916,12 +13911,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -13945,7 +13940,7 @@
         <v>6</v>
       </c>
       <c r="J102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K102" t="s">
         <v>8</v>
@@ -14032,12 +14027,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -14046,7 +14041,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
@@ -14061,7 +14056,7 @@
         <v>6</v>
       </c>
       <c r="J103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K103" t="s">
         <v>8</v>
@@ -14148,12 +14143,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -14162,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
@@ -14177,7 +14172,7 @@
         <v>6</v>
       </c>
       <c r="J104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K104" t="s">
         <v>8</v>
@@ -14270,12 +14265,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -14299,7 +14294,7 @@
         <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K105" t="s">
         <v>8</v>
@@ -14386,12 +14381,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -14400,7 +14395,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
@@ -14415,7 +14410,7 @@
         <v>6</v>
       </c>
       <c r="J106" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K106" t="s">
         <v>8</v>
@@ -14508,12 +14503,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -14522,7 +14517,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
@@ -14537,7 +14532,7 @@
         <v>6</v>
       </c>
       <c r="J107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K107" t="s">
         <v>8</v>
@@ -14630,12 +14625,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -14644,7 +14639,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
@@ -14659,7 +14654,7 @@
         <v>6</v>
       </c>
       <c r="J108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K108" t="s">
         <v>8</v>
@@ -14746,12 +14741,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -14760,7 +14755,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
@@ -14775,7 +14770,7 @@
         <v>6</v>
       </c>
       <c r="J109" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K109" t="s">
         <v>8</v>
@@ -14862,12 +14857,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -14876,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F110" t="s">
         <v>3</v>
@@ -14891,7 +14886,7 @@
         <v>6</v>
       </c>
       <c r="J110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K110" t="s">
         <v>8</v>
@@ -14978,12 +14973,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -15007,7 +15002,7 @@
         <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K111" t="s">
         <v>8</v>
@@ -15094,12 +15089,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -15108,7 +15103,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F112" t="s">
         <v>3</v>
@@ -15123,7 +15118,7 @@
         <v>6</v>
       </c>
       <c r="J112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K112" t="s">
         <v>8</v>
@@ -15216,12 +15211,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -15230,7 +15225,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
@@ -15245,7 +15240,7 @@
         <v>6</v>
       </c>
       <c r="J113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K113" t="s">
         <v>8</v>
@@ -15332,12 +15327,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -15346,7 +15341,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
@@ -15361,7 +15356,7 @@
         <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K114" t="s">
         <v>8</v>
@@ -15448,12 +15443,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -15462,7 +15457,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
@@ -15477,7 +15472,7 @@
         <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K115" t="s">
         <v>8</v>
@@ -15570,12 +15565,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -15584,7 +15579,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
@@ -15596,7 +15591,7 @@
         <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K116" t="s">
         <v>8</v>
@@ -15683,12 +15678,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -15712,7 +15707,7 @@
         <v>6</v>
       </c>
       <c r="J117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K117" t="s">
         <v>8</v>
@@ -15799,12 +15794,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -15828,7 +15823,7 @@
         <v>6</v>
       </c>
       <c r="J118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K118" t="s">
         <v>8</v>
@@ -15915,12 +15910,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -15929,7 +15924,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
@@ -15944,7 +15939,7 @@
         <v>6</v>
       </c>
       <c r="J119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K119" t="s">
         <v>8</v>
@@ -16031,12 +16026,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -16045,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F120" t="s">
         <v>3</v>
@@ -16060,7 +16055,7 @@
         <v>116</v>
       </c>
       <c r="J120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K120" t="s">
         <v>8</v>
@@ -16075,7 +16070,7 @@
         <v>15</v>
       </c>
       <c r="U120" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z120">
         <v>90</v>
@@ -16117,24 +16112,24 @@
         <v>3</v>
       </c>
       <c r="AM120" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
         <v>291</v>
-      </c>
-      <c r="AN120" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO120" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>292</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -16143,7 +16138,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
@@ -16158,7 +16153,7 @@
         <v>6</v>
       </c>
       <c r="J121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K121" t="s">
         <v>8</v>
@@ -16182,7 +16177,7 @@
         <v>63</v>
       </c>
       <c r="X121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y121" t="s">
         <v>18</v>
@@ -16236,12 +16231,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -16250,7 +16245,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F122" t="s">
         <v>3</v>
@@ -16265,7 +16260,7 @@
         <v>6</v>
       </c>
       <c r="J122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K122" t="s">
         <v>8</v>
@@ -16289,7 +16284,7 @@
         <v>63</v>
       </c>
       <c r="X122" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y122" t="s">
         <v>18</v>
@@ -16343,12 +16338,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -16372,7 +16367,7 @@
         <v>6</v>
       </c>
       <c r="J123" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K123" t="s">
         <v>8</v>
@@ -16396,7 +16391,7 @@
         <v>63</v>
       </c>
       <c r="X123" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y123" t="s">
         <v>63</v>
@@ -16450,12 +16445,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -16464,7 +16459,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
@@ -16479,7 +16474,7 @@
         <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K124" t="s">
         <v>8</v>
@@ -16503,7 +16498,7 @@
         <v>63</v>
       </c>
       <c r="X124" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y124" t="s">
         <v>18</v>
@@ -16557,12 +16552,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -16571,7 +16566,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
@@ -16586,7 +16581,7 @@
         <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K125" t="s">
         <v>8</v>
@@ -16610,7 +16605,7 @@
         <v>63</v>
       </c>
       <c r="X125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y125" t="s">
         <v>18</v>
@@ -16664,12 +16659,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -16678,7 +16673,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
@@ -16693,7 +16688,7 @@
         <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K126" t="s">
         <v>8</v>
@@ -16717,7 +16712,7 @@
         <v>63</v>
       </c>
       <c r="X126" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y126" t="s">
         <v>18</v>
@@ -16771,12 +16766,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -16785,7 +16780,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
@@ -16797,7 +16792,7 @@
         <v>6</v>
       </c>
       <c r="J127" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K127" t="s">
         <v>8</v>
@@ -16875,12 +16870,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -16889,7 +16884,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
@@ -16904,7 +16899,7 @@
         <v>6</v>
       </c>
       <c r="J128" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K128" t="s">
         <v>8</v>
@@ -16928,7 +16923,7 @@
         <v>63</v>
       </c>
       <c r="X128" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y128" t="s">
         <v>18</v>
@@ -16982,12 +16977,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -16996,7 +16991,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
@@ -17011,7 +17006,7 @@
         <v>6</v>
       </c>
       <c r="J129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K129" t="s">
         <v>8</v>
@@ -17035,7 +17030,7 @@
         <v>63</v>
       </c>
       <c r="X129" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y129" t="s">
         <v>18</v>
@@ -17089,12 +17084,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -17103,7 +17098,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
@@ -17118,7 +17113,7 @@
         <v>6</v>
       </c>
       <c r="J130" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K130" t="s">
         <v>8</v>
@@ -17142,7 +17137,7 @@
         <v>63</v>
       </c>
       <c r="X130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y130" t="s">
         <v>207</v>
@@ -17196,12 +17191,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -17210,7 +17205,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
@@ -17225,7 +17220,7 @@
         <v>6</v>
       </c>
       <c r="J131" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K131" t="s">
         <v>8</v>
@@ -17249,7 +17244,7 @@
         <v>63</v>
       </c>
       <c r="X131" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y131" t="s">
         <v>207</v>
@@ -17303,12 +17298,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -17332,7 +17327,7 @@
         <v>6</v>
       </c>
       <c r="J132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K132" t="s">
         <v>8</v>
@@ -17356,7 +17351,7 @@
         <v>63</v>
       </c>
       <c r="X132" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y132" t="s">
         <v>18</v>
@@ -17410,12 +17405,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:42" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
@@ -17424,7 +17419,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
@@ -17439,7 +17434,7 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K133" t="s">
         <v>8</v>
@@ -17463,7 +17458,7 @@
         <v>63</v>
       </c>
       <c r="X133" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y133" t="s">
         <v>18</v>
@@ -17517,12 +17512,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
@@ -17546,7 +17541,7 @@
         <v>6</v>
       </c>
       <c r="J134" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K134" t="s">
         <v>8</v>
@@ -17570,7 +17565,7 @@
         <v>63</v>
       </c>
       <c r="X134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y134" t="s">
         <v>18</v>
@@ -17624,12 +17619,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
@@ -17638,7 +17633,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F135" t="s">
         <v>3</v>
@@ -17653,7 +17648,7 @@
         <v>6</v>
       </c>
       <c r="J135" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K135" t="s">
         <v>8</v>
@@ -17677,7 +17672,7 @@
         <v>63</v>
       </c>
       <c r="X135" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y135" t="s">
         <v>18</v>
@@ -17731,12 +17726,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
@@ -17745,7 +17740,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F136" t="s">
         <v>3</v>
@@ -17760,7 +17755,7 @@
         <v>6</v>
       </c>
       <c r="J136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K136" t="s">
         <v>219</v>
@@ -17784,7 +17779,7 @@
         <v>63</v>
       </c>
       <c r="X136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y136" t="s">
         <v>18</v>
@@ -17838,12 +17833,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
@@ -17852,7 +17847,7 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F137" t="s">
         <v>3</v>
@@ -17867,7 +17862,7 @@
         <v>6</v>
       </c>
       <c r="J137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K137" t="s">
         <v>8</v>
@@ -17891,7 +17886,7 @@
         <v>63</v>
       </c>
       <c r="X137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y137" t="s">
         <v>18</v>
@@ -17945,12 +17940,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
@@ -17959,7 +17954,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
@@ -17971,10 +17966,10 @@
         <v>59</v>
       </c>
       <c r="I138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K138" t="s">
         <v>8</v>
@@ -17998,7 +17993,7 @@
         <v>63</v>
       </c>
       <c r="X138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y138" t="s">
         <v>18</v>
@@ -18052,12 +18047,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
@@ -18066,7 +18061,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F139" t="s">
         <v>3</v>
@@ -18081,7 +18076,7 @@
         <v>6</v>
       </c>
       <c r="J139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K139" t="s">
         <v>8</v>
@@ -18105,7 +18100,7 @@
         <v>63</v>
       </c>
       <c r="X139" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y139" t="s">
         <v>18</v>
@@ -18159,12 +18154,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -18173,7 +18168,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F140" t="s">
         <v>3</v>
@@ -18188,7 +18183,7 @@
         <v>6</v>
       </c>
       <c r="J140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K140" t="s">
         <v>8</v>
@@ -18212,7 +18207,7 @@
         <v>63</v>
       </c>
       <c r="X140" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y140" t="s">
         <v>18</v>
@@ -18266,12 +18261,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -18280,7 +18275,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F141" t="s">
         <v>3</v>
@@ -18295,10 +18290,10 @@
         <v>6</v>
       </c>
       <c r="J141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K141" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L141" t="s">
         <v>155</v>
@@ -18319,7 +18314,7 @@
         <v>63</v>
       </c>
       <c r="X141" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y141" t="s">
         <v>207</v>
@@ -18373,12 +18368,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
@@ -18387,7 +18382,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F142" t="s">
         <v>3</v>
@@ -18402,7 +18397,7 @@
         <v>6</v>
       </c>
       <c r="J142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K142" t="s">
         <v>8</v>
@@ -18426,7 +18421,7 @@
         <v>63</v>
       </c>
       <c r="X142" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y142" t="s">
         <v>207</v>
@@ -18480,12 +18475,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
@@ -18494,7 +18489,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F143" t="s">
         <v>3</v>
@@ -18509,7 +18504,7 @@
         <v>6</v>
       </c>
       <c r="J143" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K143" t="s">
         <v>8</v>
@@ -18533,7 +18528,7 @@
         <v>63</v>
       </c>
       <c r="X143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y143" t="s">
         <v>18</v>
@@ -18587,12 +18582,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -18601,7 +18596,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F144" t="s">
         <v>3</v>
@@ -18616,7 +18611,7 @@
         <v>6</v>
       </c>
       <c r="J144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K144" t="s">
         <v>8</v>
@@ -18640,7 +18635,7 @@
         <v>63</v>
       </c>
       <c r="X144" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y144" t="s">
         <v>18</v>
@@ -18694,12 +18689,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
@@ -18708,7 +18703,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F145" t="s">
         <v>15</v>
@@ -18720,7 +18715,7 @@
         <v>6</v>
       </c>
       <c r="J145" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K145" t="s">
         <v>8</v>
@@ -18744,7 +18739,7 @@
         <v>63</v>
       </c>
       <c r="X145" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y145" t="s">
         <v>18</v>
@@ -18798,12 +18793,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -18812,7 +18807,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F146" t="s">
         <v>3</v>
@@ -18827,7 +18822,7 @@
         <v>6</v>
       </c>
       <c r="J146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K146" t="s">
         <v>8</v>
@@ -18851,7 +18846,7 @@
         <v>63</v>
       </c>
       <c r="X146" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y146" t="s">
         <v>18</v>
@@ -18905,12 +18900,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
@@ -18919,7 +18914,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
@@ -18934,7 +18929,7 @@
         <v>6</v>
       </c>
       <c r="J147" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K147" t="s">
         <v>219</v>
@@ -18958,7 +18953,7 @@
         <v>63</v>
       </c>
       <c r="X147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y147" t="s">
         <v>207</v>
@@ -19012,12 +19007,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
@@ -19026,7 +19021,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
@@ -19041,7 +19036,7 @@
         <v>6</v>
       </c>
       <c r="J148" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K148" t="s">
         <v>8</v>
@@ -19065,7 +19060,7 @@
         <v>63</v>
       </c>
       <c r="X148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y148" t="s">
         <v>18</v>
@@ -19119,12 +19114,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
@@ -19133,7 +19128,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F149" t="s">
         <v>3</v>
@@ -19148,10 +19143,10 @@
         <v>6</v>
       </c>
       <c r="J149" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L149" t="s">
         <v>155</v>
@@ -19172,7 +19167,7 @@
         <v>63</v>
       </c>
       <c r="X149" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y149" t="s">
         <v>207</v>
@@ -19226,12 +19221,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -19240,7 +19235,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F150" t="s">
         <v>3</v>
@@ -19255,7 +19250,7 @@
         <v>6</v>
       </c>
       <c r="J150" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K150" t="s">
         <v>8</v>
@@ -19279,7 +19274,7 @@
         <v>63</v>
       </c>
       <c r="X150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y150" t="s">
         <v>18</v>
@@ -19333,12 +19328,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
@@ -19347,7 +19342,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F151" t="s">
         <v>3</v>
@@ -19362,7 +19357,7 @@
         <v>6</v>
       </c>
       <c r="J151" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K151" t="s">
         <v>219</v>
@@ -19386,7 +19381,7 @@
         <v>63</v>
       </c>
       <c r="X151" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y151" t="s">
         <v>18</v>
@@ -19440,12 +19435,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
@@ -19454,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F152" t="s">
         <v>3</v>
@@ -19469,7 +19464,7 @@
         <v>6</v>
       </c>
       <c r="J152" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K152" t="s">
         <v>8</v>
@@ -19493,7 +19488,7 @@
         <v>63</v>
       </c>
       <c r="X152" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y152" t="s">
         <v>18</v>
@@ -19547,12 +19542,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
@@ -19561,7 +19556,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
@@ -19576,7 +19571,7 @@
         <v>6</v>
       </c>
       <c r="J153" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K153" t="s">
         <v>8</v>
@@ -19600,7 +19595,7 @@
         <v>63</v>
       </c>
       <c r="X153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y153" t="s">
         <v>18</v>
@@ -19654,12 +19649,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -19668,7 +19663,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F154" t="s">
         <v>3</v>
@@ -19683,7 +19678,7 @@
         <v>6</v>
       </c>
       <c r="J154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K154" t="s">
         <v>8</v>
@@ -19707,7 +19702,7 @@
         <v>63</v>
       </c>
       <c r="X154" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y154" t="s">
         <v>18</v>
@@ -19761,12 +19756,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
@@ -19775,7 +19770,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F155" t="s">
         <v>15</v>
@@ -19787,7 +19782,7 @@
         <v>6</v>
       </c>
       <c r="J155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K155" t="s">
         <v>8</v>
@@ -19811,7 +19806,7 @@
         <v>63</v>
       </c>
       <c r="X155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y155" t="s">
         <v>63</v>
@@ -19865,12 +19860,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
@@ -19879,7 +19874,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F156" t="s">
         <v>3</v>
@@ -19894,10 +19889,10 @@
         <v>6</v>
       </c>
       <c r="J156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K156" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L156" t="s">
         <v>155</v>
@@ -19918,7 +19913,7 @@
         <v>63</v>
       </c>
       <c r="X156" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y156" t="s">
         <v>18</v>
@@ -19972,12 +19967,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
@@ -19986,7 +19981,7 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F157" t="s">
         <v>3</v>
@@ -20001,7 +19996,7 @@
         <v>6</v>
       </c>
       <c r="J157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K157" t="s">
         <v>8</v>
@@ -20025,7 +20020,7 @@
         <v>63</v>
       </c>
       <c r="X157" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y157" t="s">
         <v>18</v>
@@ -20079,12 +20074,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -20093,7 +20088,7 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
@@ -20108,7 +20103,7 @@
         <v>6</v>
       </c>
       <c r="J158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K158" t="s">
         <v>8</v>
@@ -20132,7 +20127,7 @@
         <v>63</v>
       </c>
       <c r="X158" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y158" t="s">
         <v>18</v>
@@ -20186,21 +20181,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" t="s">
         <v>364</v>
-      </c>
-      <c r="C159" t="s">
-        <v>365</v>
       </c>
       <c r="D159" t="s">
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
@@ -20311,21 +20306,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F160" t="s">
         <v>3</v>
@@ -20340,7 +20335,7 @@
         <v>6</v>
       </c>
       <c r="J160" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K160" t="s">
         <v>8</v>
@@ -20427,15 +20422,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D161" t="s">
         <v>2</v>
@@ -20552,21 +20547,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D162" t="s">
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F162" t="s">
         <v>15</v>
@@ -20671,21 +20666,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C163" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D163" t="s">
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F163" t="s">
         <v>15</v>
@@ -20790,21 +20785,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D164" t="s">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
@@ -20912,21 +20907,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D165" t="s">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
@@ -21034,21 +21029,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D166" t="s">
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F166" t="s">
         <v>3</v>
@@ -21066,7 +21061,7 @@
         <v>7</v>
       </c>
       <c r="K166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L166" t="s">
         <v>9</v>
@@ -21132,7 +21127,7 @@
         <v>13.69</v>
       </c>
       <c r="AI166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ166" t="s">
         <v>5</v>
@@ -21153,21 +21148,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D167" t="s">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F167" t="s">
         <v>3</v>
@@ -21275,21 +21270,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D168" t="s">
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F168" t="s">
         <v>3</v>
@@ -21304,7 +21299,7 @@
         <v>6</v>
       </c>
       <c r="J168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K168" t="s">
         <v>8</v>
@@ -21391,21 +21386,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C169" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D169" t="s">
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F169" t="s">
         <v>3</v>
@@ -21513,24 +21508,24 @@
         <v>3</v>
       </c>
       <c r="AQ169" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" t="s">
-        <v>389</v>
-      </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D170" t="s">
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
@@ -21545,7 +21540,7 @@
         <v>6</v>
       </c>
       <c r="J170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K170" t="s">
         <v>8</v>
@@ -21569,7 +21564,7 @@
         <v>63</v>
       </c>
       <c r="X170" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y170" t="s">
         <v>18</v>
@@ -21623,21 +21618,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C171" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D171" t="s">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
@@ -21745,21 +21740,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D172" t="s">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F172" t="s">
         <v>3</v>
@@ -21867,21 +21862,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C173" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F173" t="s">
         <v>3</v>
@@ -21989,15 +21984,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C174" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D174" t="s">
         <v>2</v>
@@ -22111,21 +22106,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C175" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D175" t="s">
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
@@ -22233,21 +22228,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C176" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D176" t="s">
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F176" t="s">
         <v>3</v>
@@ -22349,21 +22344,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C177" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D177" t="s">
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F177" t="s">
         <v>3</v>
@@ -22465,21 +22460,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
@@ -22590,21 +22585,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
@@ -22703,21 +22698,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
@@ -22825,21 +22820,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C181" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D181" t="s">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F181" t="s">
         <v>15</v>
@@ -22944,21 +22939,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C182" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D182" t="s">
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F182" t="s">
         <v>3</v>
@@ -23060,21 +23055,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C183" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D183" t="s">
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
@@ -23173,27 +23168,27 @@
         <v>3</v>
       </c>
       <c r="AQ183" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D184" t="s">
         <v>2</v>
       </c>
       <c r="E184" t="s">
+        <v>416</v>
+      </c>
+      <c r="F184" t="s">
         <v>417</v>
-      </c>
-      <c r="F184" t="s">
-        <v>418</v>
       </c>
       <c r="H184" t="s">
         <v>59</v>
@@ -23286,21 +23281,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C185" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D185" t="s">
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
@@ -23411,21 +23406,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C186" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D186" t="s">
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
@@ -23527,21 +23522,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C187" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D187" t="s">
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
@@ -23643,21 +23638,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C188" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D188" t="s">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
@@ -23762,21 +23757,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C189" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D189" t="s">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F189" t="s">
         <v>3</v>
@@ -23878,24 +23873,24 @@
         <v>3</v>
       </c>
       <c r="AQ189" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C190" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D190" t="s">
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
@@ -23907,7 +23902,7 @@
         <v>5</v>
       </c>
       <c r="I190" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J190" t="s">
         <v>7</v>
@@ -24000,21 +23995,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C191" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D191" t="s">
         <v>2</v>
       </c>
       <c r="E191" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
@@ -24029,7 +24024,7 @@
         <v>6</v>
       </c>
       <c r="J191" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K191" t="s">
         <v>8</v>
@@ -24101,15 +24096,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C192" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D192" t="s">
         <v>2</v>
@@ -24193,7 +24188,7 @@
         <v>6.01</v>
       </c>
       <c r="AI192" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ192" t="s">
         <v>5</v>
@@ -24214,15 +24209,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D193" t="s">
         <v>2</v>
@@ -24309,7 +24304,7 @@
         <v>9.73</v>
       </c>
       <c r="AI193" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ193" t="s">
         <v>5</v>
@@ -24330,21 +24325,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D194" t="s">
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
@@ -24359,7 +24354,7 @@
         <v>6</v>
       </c>
       <c r="J194" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K194" t="s">
         <v>8</v>
@@ -24437,21 +24432,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C195" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D195" t="s">
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
@@ -24466,7 +24461,7 @@
         <v>6</v>
       </c>
       <c r="J195" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K195" t="s">
         <v>8</v>
@@ -24553,21 +24548,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C196" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D196" t="s">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
@@ -24582,7 +24577,7 @@
         <v>6</v>
       </c>
       <c r="J196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K196" t="s">
         <v>8</v>
@@ -24669,24 +24664,24 @@
         <v>3</v>
       </c>
       <c r="AQ196" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C197" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D197" t="s">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
@@ -24701,7 +24696,7 @@
         <v>6</v>
       </c>
       <c r="J197" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K197" t="s">
         <v>8</v>
@@ -24719,7 +24714,7 @@
         <v>63</v>
       </c>
       <c r="X197" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y197" t="s">
         <v>207</v>
@@ -24776,21 +24771,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C198" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D198" t="s">
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
@@ -24805,7 +24800,7 @@
         <v>6</v>
       </c>
       <c r="J198" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K198" t="s">
         <v>8</v>
@@ -24823,7 +24818,7 @@
         <v>63</v>
       </c>
       <c r="X198" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y198" t="s">
         <v>18</v>
@@ -24877,21 +24872,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C199" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D199" t="s">
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
@@ -24906,7 +24901,7 @@
         <v>6</v>
       </c>
       <c r="J199" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K199" t="s">
         <v>8</v>
@@ -24924,7 +24919,7 @@
         <v>63</v>
       </c>
       <c r="X199" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y199" t="s">
         <v>18</v>
@@ -24978,21 +24973,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C200" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D200" t="s">
         <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>

--- a/analysis/Buhlen/raw_data/Buhlen.xlsx
+++ b/analysis/Buhlen/raw_data/Buhlen.xlsx
@@ -399,9 +399,6 @@
     <t>BU66 119 IIIb</t>
   </si>
   <si>
-    <t>Lichtenstein</t>
-  </si>
-  <si>
     <t>BU-031</t>
   </si>
   <si>
@@ -1552,6 +1549,9 @@
   </si>
   <si>
     <t>Keilmesser_tip</t>
+  </si>
+  <si>
+    <t>Lichtenberg</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="AC164" sqref="AC164"/>
+    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,133 +1930,133 @@
   <sheetData>
     <row r="1" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
         <v>448</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>449</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>450</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>451</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>452</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>453</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>454</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>455</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>456</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>457</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>458</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>459</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>460</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>461</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>462</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>463</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>464</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>465</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>466</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>467</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>468</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>469</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>470</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>471</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>473</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>474</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>476</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>477</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>478</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>479</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>480</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>481</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>482</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>483</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>484</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>485</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>486</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>487</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>488</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>489</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="14.45" x14ac:dyDescent="0.3">
@@ -5435,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>491</v>
       </c>
       <c r="N30" t="s">
         <v>3</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -5533,13 +5533,13 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
         <v>109</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -5566,7 +5566,7 @@
         <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q31" t="s">
         <v>13</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -5655,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -5676,7 +5676,7 @@
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>107</v>
+        <v>491</v>
       </c>
       <c r="N32" t="s">
         <v>5</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -5783,7 +5783,7 @@
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         <v>11</v>
       </c>
       <c r="P33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q33" t="s">
         <v>13</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -5893,7 +5893,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
@@ -5926,7 +5926,7 @@
         <v>11</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q34" t="s">
         <v>13</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -6015,7 +6015,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -6137,13 +6137,13 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
         <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>124</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -6179,7 +6179,7 @@
         <v>3</v>
       </c>
       <c r="S36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T36" t="s">
         <v>15</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -6259,13 +6259,13 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -6619,13 +6619,13 @@
         <v>1978</v>
       </c>
       <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
         <v>132</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>133</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -6857,7 +6857,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -6973,7 +6973,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -7095,7 +7095,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -7214,7 +7214,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -7330,7 +7330,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -7446,13 +7446,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -7470,7 +7470,7 @@
         <v>9</v>
       </c>
       <c r="M47" t="s">
-        <v>107</v>
+        <v>491</v>
       </c>
       <c r="N47" t="s">
         <v>3</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -7568,13 +7568,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -7681,13 +7681,13 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -7803,7 +7803,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -7925,7 +7925,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
         <v>3</v>
@@ -7946,7 +7946,7 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M51" t="s">
         <v>10</v>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -8163,7 +8163,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -8279,13 +8279,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
         <v>160</v>
-      </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>161</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s">
         <v>3</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -8514,7 +8514,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -8636,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -8758,7 +8758,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
         <v>3</v>
@@ -8767,7 +8767,7 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -8880,7 +8880,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -9002,7 +9002,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
@@ -9011,7 +9011,7 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I60" t="s">
         <v>6</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -9118,7 +9118,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F61" t="s">
         <v>3</v>
@@ -9139,7 +9139,7 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M61" t="s">
         <v>10</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
         <v>3</v>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -9356,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -9478,7 +9478,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
@@ -9511,7 +9511,7 @@
         <v>37</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q64" t="s">
         <v>13</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -9600,7 +9600,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
@@ -9624,7 +9624,7 @@
         <v>9</v>
       </c>
       <c r="M65" t="s">
-        <v>107</v>
+        <v>491</v>
       </c>
       <c r="N65" t="s">
         <v>3</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -9722,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
@@ -9743,7 +9743,7 @@
         <v>8</v>
       </c>
       <c r="L66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M66" t="s">
         <v>36</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -9844,7 +9844,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F67" t="s">
         <v>3</v>
@@ -9877,7 +9877,7 @@
         <v>11</v>
       </c>
       <c r="P67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q67" t="s">
         <v>93</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -9966,7 +9966,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
@@ -9987,7 +9987,7 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M68" t="s">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -10082,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
         <v>3</v>
@@ -10103,7 +10103,7 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M69" t="s">
         <v>10</v>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -10207,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F70" t="s">
         <v>3</v>
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -10323,13 +10323,13 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
         <v>196</v>
-      </c>
-      <c r="F71" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>197</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -10445,13 +10445,13 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
+        <v>198</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
         <v>199</v>
-      </c>
-      <c r="F72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" t="s">
-        <v>200</v>
       </c>
       <c r="H72" t="s">
         <v>59</v>
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -10567,7 +10567,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
@@ -10609,7 +10609,7 @@
         <v>3</v>
       </c>
       <c r="S73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T73" t="s">
         <v>15</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -10686,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F74" t="s">
         <v>3</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -10823,7 +10823,7 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M75" t="s">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -10924,13 +10924,13 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -10978,7 +10978,7 @@
         <v>5</v>
       </c>
       <c r="Y76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z76">
         <v>62</v>
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -11043,7 +11043,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
@@ -11091,7 +11091,7 @@
         <v>5</v>
       </c>
       <c r="Y77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z77">
         <v>66</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>17</v>
       </c>
       <c r="Y78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z78">
         <v>44</v>
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -11278,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F79" t="s">
         <v>3</v>
@@ -11335,7 +11335,7 @@
         <v>17</v>
       </c>
       <c r="Y79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z79">
         <v>47</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -11400,7 +11400,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
@@ -11421,7 +11421,7 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M80" t="s">
         <v>10</v>
@@ -11451,7 +11451,7 @@
         <v>17</v>
       </c>
       <c r="Y80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z80">
         <v>62</v>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -11516,7 +11516,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -11567,7 +11567,7 @@
         <v>5</v>
       </c>
       <c r="Y81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z81">
         <v>47</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -11632,7 +11632,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
@@ -11650,7 +11650,7 @@
         <v>7</v>
       </c>
       <c r="K82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L82" t="s">
         <v>63</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -11739,7 +11739,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F83" t="s">
         <v>3</v>
@@ -11757,7 +11757,7 @@
         <v>7</v>
       </c>
       <c r="K83" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L83" t="s">
         <v>63</v>
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -11852,7 +11852,7 @@
         <v>63</v>
       </c>
       <c r="E84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
@@ -11870,7 +11870,7 @@
         <v>7</v>
       </c>
       <c r="K84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L84" t="s">
         <v>63</v>
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -11968,7 +11968,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
@@ -11986,7 +11986,7 @@
         <v>7</v>
       </c>
       <c r="K85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L85" t="s">
         <v>63</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -12099,7 +12099,7 @@
         <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L86" t="s">
         <v>63</v>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -12194,7 +12194,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
@@ -12212,7 +12212,7 @@
         <v>7</v>
       </c>
       <c r="K87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L87" t="s">
         <v>63</v>
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -12310,7 +12310,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
@@ -12328,7 +12328,7 @@
         <v>7</v>
       </c>
       <c r="K88" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L88" t="s">
         <v>63</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -12432,7 +12432,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
@@ -12450,7 +12450,7 @@
         <v>7</v>
       </c>
       <c r="K89" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L89" t="s">
         <v>63</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -12554,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
@@ -12572,10 +12572,10 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M90" t="s">
         <v>63</v>
@@ -12652,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
@@ -12679,7 +12679,7 @@
         <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L91" t="s">
         <v>63</v>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -12777,7 +12777,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
@@ -12795,7 +12795,7 @@
         <v>7</v>
       </c>
       <c r="K92" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L92" t="s">
         <v>63</v>
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -12893,7 +12893,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
@@ -12911,7 +12911,7 @@
         <v>7</v>
       </c>
       <c r="K93" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L93" t="s">
         <v>63</v>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -13006,7 +13006,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
@@ -13024,7 +13024,7 @@
         <v>7</v>
       </c>
       <c r="K94" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L94" t="s">
         <v>63</v>
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -13122,7 +13122,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
@@ -13140,7 +13140,7 @@
         <v>7</v>
       </c>
       <c r="K95" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L95" t="s">
         <v>63</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -13235,7 +13235,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
@@ -13253,7 +13253,7 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L96" t="s">
         <v>63</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -13354,7 +13354,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
@@ -13372,7 +13372,7 @@
         <v>7</v>
       </c>
       <c r="K97" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L97" t="s">
         <v>63</v>
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -13470,7 +13470,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -13485,7 +13485,7 @@
         <v>7</v>
       </c>
       <c r="K98" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L98" t="s">
         <v>63</v>
@@ -13571,7 +13571,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -13580,7 +13580,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
@@ -13598,7 +13598,7 @@
         <v>7</v>
       </c>
       <c r="K99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L99" t="s">
         <v>9</v>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -13693,7 +13693,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
@@ -13708,13 +13708,13 @@
         <v>6</v>
       </c>
       <c r="J100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K100" t="s">
         <v>8</v>
       </c>
       <c r="L100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M100" t="s">
         <v>10</v>
@@ -13729,7 +13729,7 @@
         <v>3</v>
       </c>
       <c r="S100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T100" t="s">
         <v>15</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
@@ -13824,13 +13824,13 @@
         <v>6</v>
       </c>
       <c r="J101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K101" t="s">
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M101" t="s">
         <v>36</v>
@@ -13845,7 +13845,7 @@
         <v>3</v>
       </c>
       <c r="S101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T101" t="s">
         <v>15</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -13925,7 +13925,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
@@ -13940,13 +13940,13 @@
         <v>6</v>
       </c>
       <c r="J102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K102" t="s">
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M102" t="s">
         <v>23</v>
@@ -13961,7 +13961,7 @@
         <v>3</v>
       </c>
       <c r="S102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T102" t="s">
         <v>15</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -14041,7 +14041,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
@@ -14056,13 +14056,13 @@
         <v>6</v>
       </c>
       <c r="J103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K103" t="s">
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M103" t="s">
         <v>36</v>
@@ -14077,7 +14077,7 @@
         <v>3</v>
       </c>
       <c r="S103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T103" t="s">
         <v>15</v>
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
@@ -14172,13 +14172,13 @@
         <v>6</v>
       </c>
       <c r="J104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K104" t="s">
         <v>8</v>
       </c>
       <c r="L104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M104" t="s">
         <v>10</v>
@@ -14199,7 +14199,7 @@
         <v>3</v>
       </c>
       <c r="S104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T104" t="s">
         <v>15</v>
@@ -14270,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -14279,7 +14279,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
@@ -14294,13 +14294,13 @@
         <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K105" t="s">
         <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M105" t="s">
         <v>10</v>
@@ -14315,7 +14315,7 @@
         <v>3</v>
       </c>
       <c r="S105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T105" t="s">
         <v>15</v>
@@ -14386,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -14395,7 +14395,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
@@ -14410,13 +14410,13 @@
         <v>6</v>
       </c>
       <c r="J106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K106" t="s">
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M106" t="s">
         <v>86</v>
@@ -14437,7 +14437,7 @@
         <v>3</v>
       </c>
       <c r="S106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T106" t="s">
         <v>15</v>
@@ -14508,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
@@ -14532,13 +14532,13 @@
         <v>6</v>
       </c>
       <c r="J107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K107" t="s">
         <v>8</v>
       </c>
       <c r="L107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M107" t="s">
         <v>10</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -14639,13 +14639,13 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H108" t="s">
         <v>59</v>
@@ -14654,13 +14654,13 @@
         <v>6</v>
       </c>
       <c r="J108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K108" t="s">
         <v>8</v>
       </c>
       <c r="L108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M108" t="s">
         <v>36</v>
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -14755,7 +14755,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
@@ -14770,13 +14770,13 @@
         <v>6</v>
       </c>
       <c r="J109" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K109" t="s">
         <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M109" t="s">
         <v>10</v>
@@ -14791,7 +14791,7 @@
         <v>3</v>
       </c>
       <c r="S109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T109" t="s">
         <v>15</v>
@@ -14862,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F110" t="s">
         <v>3</v>
@@ -14886,13 +14886,13 @@
         <v>6</v>
       </c>
       <c r="J110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K110" t="s">
         <v>8</v>
       </c>
       <c r="L110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M110" t="s">
         <v>86</v>
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -15002,13 +15002,13 @@
         <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K111" t="s">
         <v>8</v>
       </c>
       <c r="L111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M111" t="s">
         <v>10</v>
@@ -15023,7 +15023,7 @@
         <v>3</v>
       </c>
       <c r="S111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T111" t="s">
         <v>15</v>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -15103,7 +15103,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F112" t="s">
         <v>3</v>
@@ -15118,13 +15118,13 @@
         <v>6</v>
       </c>
       <c r="J112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K112" t="s">
         <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M112" t="s">
         <v>23</v>
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -15225,13 +15225,13 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H113" t="s">
         <v>5</v>
@@ -15240,13 +15240,13 @@
         <v>6</v>
       </c>
       <c r="J113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K113" t="s">
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M113" t="s">
         <v>36</v>
@@ -15261,7 +15261,7 @@
         <v>3</v>
       </c>
       <c r="S113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T113" t="s">
         <v>15</v>
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -15341,7 +15341,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
@@ -15356,13 +15356,13 @@
         <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K114" t="s">
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M114" t="s">
         <v>10</v>
@@ -15448,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -15457,7 +15457,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
@@ -15472,13 +15472,13 @@
         <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K115" t="s">
         <v>8</v>
       </c>
       <c r="L115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M115" t="s">
         <v>63</v>
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -15579,7 +15579,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
@@ -15591,13 +15591,13 @@
         <v>6</v>
       </c>
       <c r="J116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K116" t="s">
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M116" t="s">
         <v>10</v>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -15692,7 +15692,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
@@ -15707,13 +15707,13 @@
         <v>6</v>
       </c>
       <c r="J117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K117" t="s">
         <v>8</v>
       </c>
       <c r="L117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M117" t="s">
         <v>10</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -15808,7 +15808,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
@@ -15823,13 +15823,13 @@
         <v>6</v>
       </c>
       <c r="J118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K118" t="s">
         <v>8</v>
       </c>
       <c r="L118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M118" t="s">
         <v>23</v>
@@ -15859,7 +15859,7 @@
         <v>17</v>
       </c>
       <c r="Y118" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z118">
         <v>33</v>
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -15924,7 +15924,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
@@ -15939,13 +15939,13 @@
         <v>6</v>
       </c>
       <c r="J119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K119" t="s">
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M119" t="s">
         <v>10</v>
@@ -15975,7 +15975,7 @@
         <v>17</v>
       </c>
       <c r="Y119" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z119">
         <v>57</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -16040,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F120" t="s">
         <v>3</v>
@@ -16052,10 +16052,10 @@
         <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K120" t="s">
         <v>8</v>
@@ -16070,7 +16070,7 @@
         <v>15</v>
       </c>
       <c r="U120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z120">
         <v>90</v>
@@ -16112,7 +16112,7 @@
         <v>3</v>
       </c>
       <c r="AM120" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN120" t="s">
         <v>3</v>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -16138,7 +16138,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
@@ -16153,13 +16153,13 @@
         <v>6</v>
       </c>
       <c r="J121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K121" t="s">
         <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N121" t="s">
         <v>5</v>
@@ -16177,7 +16177,7 @@
         <v>63</v>
       </c>
       <c r="X121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y121" t="s">
         <v>18</v>
@@ -16236,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F122" t="s">
         <v>3</v>
@@ -16260,13 +16260,13 @@
         <v>6</v>
       </c>
       <c r="J122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K122" t="s">
         <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N122" t="s">
         <v>5</v>
@@ -16284,7 +16284,7 @@
         <v>63</v>
       </c>
       <c r="X122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y122" t="s">
         <v>18</v>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -16367,13 +16367,13 @@
         <v>6</v>
       </c>
       <c r="J123" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K123" t="s">
         <v>8</v>
       </c>
       <c r="L123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N123" t="s">
         <v>5</v>
@@ -16391,7 +16391,7 @@
         <v>63</v>
       </c>
       <c r="X123" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y123" t="s">
         <v>63</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -16459,7 +16459,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
@@ -16474,13 +16474,13 @@
         <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K124" t="s">
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N124" t="s">
         <v>5</v>
@@ -16498,7 +16498,7 @@
         <v>63</v>
       </c>
       <c r="X124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y124" t="s">
         <v>18</v>
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -16566,7 +16566,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
@@ -16581,13 +16581,13 @@
         <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K125" t="s">
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N125" t="s">
         <v>5</v>
@@ -16605,7 +16605,7 @@
         <v>63</v>
       </c>
       <c r="X125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y125" t="s">
         <v>18</v>
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
@@ -16673,7 +16673,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
@@ -16688,13 +16688,13 @@
         <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K126" t="s">
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N126" t="s">
         <v>5</v>
@@ -16712,7 +16712,7 @@
         <v>63</v>
       </c>
       <c r="X126" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y126" t="s">
         <v>18</v>
@@ -16771,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -16780,7 +16780,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
@@ -16792,13 +16792,13 @@
         <v>6</v>
       </c>
       <c r="J127" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K127" t="s">
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N127" t="s">
         <v>5</v>
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -16884,7 +16884,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
@@ -16899,13 +16899,13 @@
         <v>6</v>
       </c>
       <c r="J128" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K128" t="s">
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N128" t="s">
         <v>5</v>
@@ -16923,7 +16923,7 @@
         <v>63</v>
       </c>
       <c r="X128" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y128" t="s">
         <v>18</v>
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -16991,13 +16991,13 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H129" t="s">
         <v>59</v>
@@ -17006,13 +17006,13 @@
         <v>6</v>
       </c>
       <c r="J129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K129" t="s">
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N129" t="s">
         <v>5</v>
@@ -17030,7 +17030,7 @@
         <v>63</v>
       </c>
       <c r="X129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y129" t="s">
         <v>18</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
@@ -17098,7 +17098,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
@@ -17113,13 +17113,13 @@
         <v>6</v>
       </c>
       <c r="J130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K130" t="s">
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N130" t="s">
         <v>5</v>
@@ -17137,10 +17137,10 @@
         <v>63</v>
       </c>
       <c r="X130" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z130">
         <v>39</v>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
@@ -17205,7 +17205,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
@@ -17220,13 +17220,13 @@
         <v>6</v>
       </c>
       <c r="J131" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K131" t="s">
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N131" t="s">
         <v>5</v>
@@ -17244,10 +17244,10 @@
         <v>63</v>
       </c>
       <c r="X131" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z131">
         <v>37</v>
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -17312,7 +17312,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F132" t="s">
         <v>3</v>
@@ -17327,13 +17327,13 @@
         <v>6</v>
       </c>
       <c r="J132" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K132" t="s">
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N132" t="s">
         <v>5</v>
@@ -17351,7 +17351,7 @@
         <v>63</v>
       </c>
       <c r="X132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y132" t="s">
         <v>18</v>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
@@ -17419,7 +17419,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
@@ -17434,13 +17434,13 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K133" t="s">
         <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N133" t="s">
         <v>5</v>
@@ -17458,7 +17458,7 @@
         <v>63</v>
       </c>
       <c r="X133" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y133" t="s">
         <v>18</v>
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
@@ -17526,7 +17526,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F134" t="s">
         <v>3</v>
@@ -17541,13 +17541,13 @@
         <v>6</v>
       </c>
       <c r="J134" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K134" t="s">
         <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N134" t="s">
         <v>5</v>
@@ -17565,7 +17565,7 @@
         <v>63</v>
       </c>
       <c r="X134" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y134" t="s">
         <v>18</v>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F135" t="s">
         <v>3</v>
@@ -17648,13 +17648,13 @@
         <v>6</v>
       </c>
       <c r="J135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K135" t="s">
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N135" t="s">
         <v>5</v>
@@ -17672,7 +17672,7 @@
         <v>63</v>
       </c>
       <c r="X135" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y135" t="s">
         <v>18</v>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
@@ -17740,7 +17740,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F136" t="s">
         <v>3</v>
@@ -17755,13 +17755,13 @@
         <v>6</v>
       </c>
       <c r="J136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N136" t="s">
         <v>5</v>
@@ -17779,7 +17779,7 @@
         <v>63</v>
       </c>
       <c r="X136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y136" t="s">
         <v>18</v>
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
@@ -17847,7 +17847,7 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F137" t="s">
         <v>3</v>
@@ -17862,13 +17862,13 @@
         <v>6</v>
       </c>
       <c r="J137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K137" t="s">
         <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N137" t="s">
         <v>5</v>
@@ -17886,7 +17886,7 @@
         <v>63</v>
       </c>
       <c r="X137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y137" t="s">
         <v>18</v>
@@ -17945,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
@@ -17954,7 +17954,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
@@ -17966,16 +17966,16 @@
         <v>59</v>
       </c>
       <c r="I138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J138" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K138" t="s">
         <v>8</v>
       </c>
       <c r="L138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N138" t="s">
         <v>5</v>
@@ -17993,7 +17993,7 @@
         <v>63</v>
       </c>
       <c r="X138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y138" t="s">
         <v>18</v>
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
@@ -18061,7 +18061,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F139" t="s">
         <v>3</v>
@@ -18076,13 +18076,13 @@
         <v>6</v>
       </c>
       <c r="J139" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K139" t="s">
         <v>8</v>
       </c>
       <c r="L139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N139" t="s">
         <v>5</v>
@@ -18100,7 +18100,7 @@
         <v>63</v>
       </c>
       <c r="X139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y139" t="s">
         <v>18</v>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -18168,7 +18168,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F140" t="s">
         <v>3</v>
@@ -18183,13 +18183,13 @@
         <v>6</v>
       </c>
       <c r="J140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K140" t="s">
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N140" t="s">
         <v>5</v>
@@ -18207,7 +18207,7 @@
         <v>63</v>
       </c>
       <c r="X140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y140" t="s">
         <v>18</v>
@@ -18266,7 +18266,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
@@ -18275,13 +18275,13 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F141" t="s">
         <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H141" t="s">
         <v>59</v>
@@ -18290,13 +18290,13 @@
         <v>6</v>
       </c>
       <c r="J141" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N141" t="s">
         <v>5</v>
@@ -18314,10 +18314,10 @@
         <v>63</v>
       </c>
       <c r="X141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z141">
         <v>26</v>
@@ -18373,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
@@ -18382,7 +18382,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F142" t="s">
         <v>3</v>
@@ -18397,13 +18397,13 @@
         <v>6</v>
       </c>
       <c r="J142" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K142" t="s">
         <v>8</v>
       </c>
       <c r="L142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N142" t="s">
         <v>5</v>
@@ -18421,10 +18421,10 @@
         <v>63</v>
       </c>
       <c r="X142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z142">
         <v>33</v>
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
@@ -18489,7 +18489,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F143" t="s">
         <v>3</v>
@@ -18504,13 +18504,13 @@
         <v>6</v>
       </c>
       <c r="J143" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K143" t="s">
         <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N143" t="s">
         <v>5</v>
@@ -18528,7 +18528,7 @@
         <v>63</v>
       </c>
       <c r="X143" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y143" t="s">
         <v>18</v>
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -18596,7 +18596,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F144" t="s">
         <v>3</v>
@@ -18611,13 +18611,13 @@
         <v>6</v>
       </c>
       <c r="J144" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K144" t="s">
         <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N144" t="s">
         <v>5</v>
@@ -18635,7 +18635,7 @@
         <v>63</v>
       </c>
       <c r="X144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y144" t="s">
         <v>18</v>
@@ -18694,7 +18694,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
@@ -18703,7 +18703,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F145" t="s">
         <v>15</v>
@@ -18715,13 +18715,13 @@
         <v>6</v>
       </c>
       <c r="J145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K145" t="s">
         <v>8</v>
       </c>
       <c r="L145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N145" t="s">
         <v>5</v>
@@ -18739,7 +18739,7 @@
         <v>63</v>
       </c>
       <c r="X145" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y145" t="s">
         <v>18</v>
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -18807,7 +18807,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F146" t="s">
         <v>3</v>
@@ -18822,13 +18822,13 @@
         <v>6</v>
       </c>
       <c r="J146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K146" t="s">
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N146" t="s">
         <v>5</v>
@@ -18846,7 +18846,7 @@
         <v>63</v>
       </c>
       <c r="X146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y146" t="s">
         <v>18</v>
@@ -18905,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
@@ -18914,13 +18914,13 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H147" t="s">
         <v>59</v>
@@ -18929,13 +18929,13 @@
         <v>6</v>
       </c>
       <c r="J147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L147" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N147" t="s">
         <v>5</v>
@@ -18953,10 +18953,10 @@
         <v>63</v>
       </c>
       <c r="X147" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y147" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z147">
         <v>37</v>
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
@@ -19021,7 +19021,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
@@ -19036,13 +19036,13 @@
         <v>6</v>
       </c>
       <c r="J148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K148" t="s">
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N148" t="s">
         <v>5</v>
@@ -19060,7 +19060,7 @@
         <v>63</v>
       </c>
       <c r="X148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y148" t="s">
         <v>18</v>
@@ -19119,7 +19119,7 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
@@ -19128,7 +19128,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F149" t="s">
         <v>3</v>
@@ -19143,13 +19143,13 @@
         <v>6</v>
       </c>
       <c r="J149" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N149" t="s">
         <v>5</v>
@@ -19167,10 +19167,10 @@
         <v>63</v>
       </c>
       <c r="X149" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y149" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z149">
         <v>26</v>
@@ -19226,7 +19226,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -19235,7 +19235,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F150" t="s">
         <v>3</v>
@@ -19250,13 +19250,13 @@
         <v>6</v>
       </c>
       <c r="J150" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K150" t="s">
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N150" t="s">
         <v>5</v>
@@ -19274,7 +19274,7 @@
         <v>63</v>
       </c>
       <c r="X150" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y150" t="s">
         <v>18</v>
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
@@ -19342,13 +19342,13 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F151" t="s">
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H151" t="s">
         <v>59</v>
@@ -19357,13 +19357,13 @@
         <v>6</v>
       </c>
       <c r="J151" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N151" t="s">
         <v>5</v>
@@ -19381,7 +19381,7 @@
         <v>63</v>
       </c>
       <c r="X151" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y151" t="s">
         <v>18</v>
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
@@ -19449,7 +19449,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F152" t="s">
         <v>3</v>
@@ -19464,13 +19464,13 @@
         <v>6</v>
       </c>
       <c r="J152" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K152" t="s">
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N152" t="s">
         <v>5</v>
@@ -19488,7 +19488,7 @@
         <v>63</v>
       </c>
       <c r="X152" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y152" t="s">
         <v>18</v>
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
@@ -19556,7 +19556,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
@@ -19571,13 +19571,13 @@
         <v>6</v>
       </c>
       <c r="J153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K153" t="s">
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N153" t="s">
         <v>5</v>
@@ -19595,7 +19595,7 @@
         <v>63</v>
       </c>
       <c r="X153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y153" t="s">
         <v>18</v>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -19663,7 +19663,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F154" t="s">
         <v>3</v>
@@ -19678,13 +19678,13 @@
         <v>6</v>
       </c>
       <c r="J154" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K154" t="s">
         <v>8</v>
       </c>
       <c r="L154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N154" t="s">
         <v>5</v>
@@ -19702,7 +19702,7 @@
         <v>63</v>
       </c>
       <c r="X154" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y154" t="s">
         <v>18</v>
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
@@ -19770,7 +19770,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F155" t="s">
         <v>15</v>
@@ -19782,13 +19782,13 @@
         <v>6</v>
       </c>
       <c r="J155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K155" t="s">
         <v>8</v>
       </c>
       <c r="L155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N155" t="s">
         <v>5</v>
@@ -19806,7 +19806,7 @@
         <v>63</v>
       </c>
       <c r="X155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y155" t="s">
         <v>63</v>
@@ -19865,7 +19865,7 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
@@ -19874,7 +19874,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F156" t="s">
         <v>3</v>
@@ -19889,13 +19889,13 @@
         <v>6</v>
       </c>
       <c r="J156" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N156" t="s">
         <v>5</v>
@@ -19913,7 +19913,7 @@
         <v>63</v>
       </c>
       <c r="X156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y156" t="s">
         <v>18</v>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
@@ -19981,7 +19981,7 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F157" t="s">
         <v>3</v>
@@ -19996,13 +19996,13 @@
         <v>6</v>
       </c>
       <c r="J157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K157" t="s">
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N157" t="s">
         <v>5</v>
@@ -20020,7 +20020,7 @@
         <v>63</v>
       </c>
       <c r="X157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y157" t="s">
         <v>18</v>
@@ -20079,7 +20079,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
@@ -20088,13 +20088,13 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H158" t="s">
         <v>59</v>
@@ -20103,13 +20103,13 @@
         <v>6</v>
       </c>
       <c r="J158" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K158" t="s">
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N158" t="s">
         <v>5</v>
@@ -20127,7 +20127,7 @@
         <v>63</v>
       </c>
       <c r="X158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y158" t="s">
         <v>18</v>
@@ -20186,16 +20186,16 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
+        <v>362</v>
+      </c>
+      <c r="C159" t="s">
         <v>363</v>
-      </c>
-      <c r="C159" t="s">
-        <v>364</v>
       </c>
       <c r="D159" t="s">
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
@@ -20311,16 +20311,16 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F160" t="s">
         <v>3</v>
@@ -20335,13 +20335,13 @@
         <v>6</v>
       </c>
       <c r="J160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K160" t="s">
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M160" t="s">
         <v>0</v>
@@ -20356,7 +20356,7 @@
         <v>3</v>
       </c>
       <c r="S160" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T160" t="s">
         <v>15</v>
@@ -20427,10 +20427,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D161" t="s">
         <v>2</v>
@@ -20552,16 +20552,16 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D162" t="s">
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F162" t="s">
         <v>15</v>
@@ -20671,16 +20671,16 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D163" t="s">
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F163" t="s">
         <v>15</v>
@@ -20790,16 +20790,16 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C164" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D164" t="s">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
@@ -20912,16 +20912,16 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C165" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D165" t="s">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
@@ -21034,16 +21034,16 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C166" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D166" t="s">
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F166" t="s">
         <v>3</v>
@@ -21061,7 +21061,7 @@
         <v>7</v>
       </c>
       <c r="K166" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L166" t="s">
         <v>9</v>
@@ -21127,7 +21127,7 @@
         <v>13.69</v>
       </c>
       <c r="AI166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AJ166" t="s">
         <v>5</v>
@@ -21153,16 +21153,16 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D167" t="s">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F167" t="s">
         <v>3</v>
@@ -21275,16 +21275,16 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C168" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D168" t="s">
         <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F168" t="s">
         <v>3</v>
@@ -21299,13 +21299,13 @@
         <v>6</v>
       </c>
       <c r="J168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K168" t="s">
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M168" t="s">
         <v>36</v>
@@ -21335,7 +21335,7 @@
         <v>48</v>
       </c>
       <c r="Y168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z168">
         <v>47.91</v>
@@ -21391,16 +21391,16 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D169" t="s">
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F169" t="s">
         <v>3</v>
@@ -21508,7 +21508,7 @@
         <v>3</v>
       </c>
       <c r="AQ169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="170" spans="1:43" x14ac:dyDescent="0.25">
@@ -21516,16 +21516,16 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D170" t="s">
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
@@ -21540,13 +21540,13 @@
         <v>6</v>
       </c>
       <c r="J170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K170" t="s">
         <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N170" t="s">
         <v>5</v>
@@ -21564,7 +21564,7 @@
         <v>63</v>
       </c>
       <c r="X170" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y170" t="s">
         <v>18</v>
@@ -21623,16 +21623,16 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C171" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D171" t="s">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
@@ -21745,16 +21745,16 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C172" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D172" t="s">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F172" t="s">
         <v>3</v>
@@ -21811,7 +21811,7 @@
         <v>17</v>
       </c>
       <c r="Y172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z172">
         <v>84.08</v>
@@ -21867,16 +21867,16 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F173" t="s">
         <v>3</v>
@@ -21989,10 +21989,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C174" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D174" t="s">
         <v>2</v>
@@ -22111,16 +22111,16 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C175" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D175" t="s">
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
@@ -22233,16 +22233,16 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C176" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D176" t="s">
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F176" t="s">
         <v>3</v>
@@ -22349,16 +22349,16 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C177" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D177" t="s">
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F177" t="s">
         <v>3</v>
@@ -22465,16 +22465,16 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C178" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
@@ -22590,16 +22590,16 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
@@ -22703,16 +22703,16 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C180" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
@@ -22825,16 +22825,16 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C181" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D181" t="s">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F181" t="s">
         <v>15</v>
@@ -22885,7 +22885,7 @@
         <v>63</v>
       </c>
       <c r="Y181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z181">
         <v>46.18</v>
@@ -22944,16 +22944,16 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C182" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D182" t="s">
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F182" t="s">
         <v>3</v>
@@ -23060,16 +23060,16 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C183" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D183" t="s">
         <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
@@ -23168,7 +23168,7 @@
         <v>3</v>
       </c>
       <c r="AQ183" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:43" x14ac:dyDescent="0.25">
@@ -23176,19 +23176,19 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C184" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D184" t="s">
         <v>2</v>
       </c>
       <c r="E184" t="s">
+        <v>415</v>
+      </c>
+      <c r="F184" t="s">
         <v>416</v>
-      </c>
-      <c r="F184" t="s">
-        <v>417</v>
       </c>
       <c r="H184" t="s">
         <v>59</v>
@@ -23286,16 +23286,16 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C185" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D185" t="s">
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
@@ -23328,7 +23328,7 @@
         <v>11</v>
       </c>
       <c r="P185" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q185" t="s">
         <v>30</v>
@@ -23411,16 +23411,16 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C186" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D186" t="s">
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
@@ -23527,16 +23527,16 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C187" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D187" t="s">
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
@@ -23643,16 +23643,16 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C188" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D188" t="s">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
@@ -23762,16 +23762,16 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C189" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D189" t="s">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F189" t="s">
         <v>3</v>
@@ -23873,7 +23873,7 @@
         <v>3</v>
       </c>
       <c r="AQ189" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:43" x14ac:dyDescent="0.25">
@@ -23881,16 +23881,16 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C190" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D190" t="s">
         <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
@@ -23902,7 +23902,7 @@
         <v>5</v>
       </c>
       <c r="I190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J190" t="s">
         <v>7</v>
@@ -23914,7 +23914,7 @@
         <v>9</v>
       </c>
       <c r="M190" t="s">
-        <v>107</v>
+        <v>491</v>
       </c>
       <c r="N190" t="s">
         <v>3</v>
@@ -23932,7 +23932,7 @@
         <v>3</v>
       </c>
       <c r="S190" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T190" t="s">
         <v>15</v>
@@ -23944,7 +23944,7 @@
         <v>5</v>
       </c>
       <c r="Y190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z190">
         <v>42.09</v>
@@ -24000,16 +24000,16 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D191" t="s">
         <v>2</v>
       </c>
       <c r="E191" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
@@ -24024,13 +24024,13 @@
         <v>6</v>
       </c>
       <c r="J191" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K191" t="s">
         <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N191" t="s">
         <v>5</v>
@@ -24039,7 +24039,7 @@
         <v>3</v>
       </c>
       <c r="S191" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T191" t="s">
         <v>15</v>
@@ -24101,16 +24101,16 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C192" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D192" t="s">
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F192" t="s">
         <v>3</v>
@@ -24134,7 +24134,7 @@
         <v>63</v>
       </c>
       <c r="M192" t="s">
-        <v>107</v>
+        <v>491</v>
       </c>
       <c r="N192" t="s">
         <v>5</v>
@@ -24158,7 +24158,7 @@
         <v>5</v>
       </c>
       <c r="Y192" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z192">
         <v>43.63</v>
@@ -24188,7 +24188,7 @@
         <v>6.01</v>
       </c>
       <c r="AI192" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AJ192" t="s">
         <v>5</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C193" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D193" t="s">
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F193" t="s">
         <v>3</v>
@@ -24304,7 +24304,7 @@
         <v>9.73</v>
       </c>
       <c r="AI193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AJ193" t="s">
         <v>5</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C194" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D194" t="s">
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H194" t="s">
         <v>5</v>
@@ -24354,13 +24354,13 @@
         <v>6</v>
       </c>
       <c r="J194" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K194" t="s">
         <v>8</v>
       </c>
       <c r="L194" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N194" t="s">
         <v>3</v>
@@ -24369,13 +24369,13 @@
         <v>11</v>
       </c>
       <c r="P194" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R194" t="s">
         <v>3</v>
       </c>
       <c r="S194" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T194" t="s">
         <v>15</v>
@@ -24437,16 +24437,16 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C195" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D195" t="s">
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
@@ -24461,13 +24461,13 @@
         <v>6</v>
       </c>
       <c r="J195" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K195" t="s">
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M195" t="s">
         <v>0</v>
@@ -24553,16 +24553,16 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C196" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D196" t="s">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
@@ -24577,13 +24577,13 @@
         <v>6</v>
       </c>
       <c r="J196" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K196" t="s">
         <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M196" t="s">
         <v>10</v>
@@ -24664,7 +24664,7 @@
         <v>3</v>
       </c>
       <c r="AQ196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="1:43" x14ac:dyDescent="0.25">
@@ -24672,16 +24672,16 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C197" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D197" t="s">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
@@ -24696,13 +24696,13 @@
         <v>6</v>
       </c>
       <c r="J197" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K197" t="s">
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N197" t="s">
         <v>5</v>
@@ -24714,10 +24714,10 @@
         <v>63</v>
       </c>
       <c r="X197" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y197" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z197">
         <v>54.45</v>
@@ -24776,16 +24776,16 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C198" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D198" t="s">
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
@@ -24800,13 +24800,13 @@
         <v>6</v>
       </c>
       <c r="J198" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K198" t="s">
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N198" t="s">
         <v>5</v>
@@ -24818,7 +24818,7 @@
         <v>63</v>
       </c>
       <c r="X198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y198" t="s">
         <v>18</v>
@@ -24877,16 +24877,16 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C199" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D199" t="s">
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
@@ -24901,13 +24901,13 @@
         <v>6</v>
       </c>
       <c r="J199" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K199" t="s">
         <v>8</v>
       </c>
       <c r="L199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N199" t="s">
         <v>5</v>
@@ -24919,7 +24919,7 @@
         <v>63</v>
       </c>
       <c r="X199" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y199" t="s">
         <v>18</v>
@@ -24978,16 +24978,16 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C200" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D200" t="s">
         <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>

--- a/analysis/Buhlen/raw_data/Buhlen.xlsx
+++ b/analysis/Buhlen/raw_data/Buhlen.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$Q$1:$Q$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$I$1:$I$200</definedName>
     <definedName name="Buhlen" localSheetId="0">Tabelle1!$A$1:$AQ$200</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="491">
   <si>
     <t>Buhlen</t>
   </si>
@@ -1547,6 +1547,9 @@
   </si>
   <si>
     <t>Pradnik_scraper</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1874,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J181" workbookViewId="0">
-      <selection activeCell="O207" sqref="O207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5778,7 +5781,7 @@
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>6</v>
+        <v>490</v>
       </c>
       <c r="J33" t="s">
         <v>7</v>
@@ -25085,7 +25088,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Q1:Q200"/>
+  <autoFilter ref="I1:I200"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>